--- a/Fees.xlsx
+++ b/Fees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f128286b0ef8de1/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{64268263-CDB2-42EC-BF05-493B52CED3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{772973D4-5725-4046-BD43-B24BE9C56EED}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{64268263-CDB2-42EC-BF05-493B52CED3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2BF22B5-0E10-46D8-A224-6743397ECEF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D8A528E-C9B7-4FA9-BD04-72DB97F79495}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="292">
   <si>
     <t>Control Number</t>
   </si>
@@ -646,6 +646,270 @@
   </si>
   <si>
     <t>BGG071416140</t>
+  </si>
+  <si>
+    <t>Vaisala</t>
+  </si>
+  <si>
+    <t>VL-2000-20R</t>
+  </si>
+  <si>
+    <t>CRC DPT 24.25.25</t>
+  </si>
+  <si>
+    <t>PDT101-W4C</t>
+  </si>
+  <si>
+    <t>Temperature and Relative Humidity Logger</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-12)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-09)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-06)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-10)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-08)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-04)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-11)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-03)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-01)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-02)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-05)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (DPT-07)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-11)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-12)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-13)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-14)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-21)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-22)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-23)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-24)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-31)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-32)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-33)</t>
+  </si>
+  <si>
+    <t>Differential Pressure Logger (PDT-34)</t>
+  </si>
+  <si>
+    <t>PJ71172</t>
+  </si>
+  <si>
+    <t>Pipetman 100 – 1,000 L pipet</t>
+  </si>
+  <si>
+    <t>LP1000L</t>
+  </si>
+  <si>
+    <t>PH74130</t>
+  </si>
+  <si>
+    <t>Pipetman 1 – 10 mL pipet</t>
+  </si>
+  <si>
+    <t>LP10mLL</t>
+  </si>
+  <si>
+    <t>PG7025</t>
+  </si>
+  <si>
+    <t>PH74707</t>
+  </si>
+  <si>
+    <t>PJ71165</t>
+  </si>
+  <si>
+    <t>PL71841</t>
+  </si>
+  <si>
+    <t>Pipetman 1 – 10 L pipet</t>
+  </si>
+  <si>
+    <t>LP10L</t>
+  </si>
+  <si>
+    <t>PJ70550</t>
+  </si>
+  <si>
+    <t>Pipetman 0.2 – 2 L pipet</t>
+  </si>
+  <si>
+    <t>LP2L</t>
+  </si>
+  <si>
+    <t>PJ70552</t>
+  </si>
+  <si>
+    <t>PK73413</t>
+  </si>
+  <si>
+    <t>Pipetman 10 – 100 L pipet</t>
+  </si>
+  <si>
+    <t>LP100L</t>
+  </si>
+  <si>
+    <t>PK73421</t>
+  </si>
+  <si>
+    <t>PH72456</t>
+  </si>
+  <si>
+    <t>Pipetman Multichannel 20 – 200 L pipet</t>
+  </si>
+  <si>
+    <t>LP8X200L</t>
+  </si>
+  <si>
+    <t>PH74126</t>
+  </si>
+  <si>
+    <t>LP10Mll</t>
+  </si>
+  <si>
+    <t>PH74706</t>
+  </si>
+  <si>
+    <t>PK73588</t>
+  </si>
+  <si>
+    <t>PJ71792</t>
+  </si>
+  <si>
+    <t>Pipetman 20 – 200 L pipet</t>
+  </si>
+  <si>
+    <t>LP200L</t>
+  </si>
+  <si>
+    <t>PH74465</t>
+  </si>
+  <si>
+    <t>Pipetman 2 – 20 L pipet</t>
+  </si>
+  <si>
+    <t>LP20L</t>
+  </si>
+  <si>
+    <t>PH74733</t>
+  </si>
+  <si>
+    <t>PG71956</t>
+  </si>
+  <si>
+    <t>PK73587</t>
+  </si>
+  <si>
+    <t>PK73586</t>
+  </si>
+  <si>
+    <t>PH74467</t>
+  </si>
+  <si>
+    <t>PJ71786</t>
+  </si>
+  <si>
+    <t>PJ70556</t>
+  </si>
+  <si>
+    <t>PJ70555</t>
+  </si>
+  <si>
+    <t>PK75520</t>
+  </si>
+  <si>
+    <t>PJ71139</t>
+  </si>
+  <si>
+    <t>PJ72452</t>
+  </si>
+  <si>
+    <t>PH72455</t>
+  </si>
+  <si>
+    <t>PJ71143</t>
+  </si>
+  <si>
+    <t>PH74151</t>
+  </si>
+  <si>
+    <t>PJ71745</t>
+  </si>
+  <si>
+    <t>PJ71791</t>
+  </si>
+  <si>
+    <t>PJ71155</t>
+  </si>
+  <si>
+    <t>PL71838</t>
+  </si>
+  <si>
+    <t>PG71960</t>
+  </si>
+  <si>
+    <t>PH74136</t>
+  </si>
+  <si>
+    <t>PH74450</t>
+  </si>
+  <si>
+    <t>PJ71159</t>
+  </si>
+  <si>
+    <t>PG71951</t>
+  </si>
+  <si>
+    <t>PJ71733</t>
+  </si>
+  <si>
+    <t>PJ70554</t>
+  </si>
+  <si>
+    <t>PH74484</t>
   </si>
 </sst>
 </file>
@@ -676,7 +940,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,6 +950,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -725,7 +1007,29 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,6 +1128,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -843,6 +1152,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -862,6 +1176,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -881,6 +1200,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -900,6 +1224,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -919,6 +1248,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -940,6 +1274,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -961,6 +1300,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -982,6 +1326,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1003,6 +1352,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1024,6 +1378,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1045,6 +1404,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1067,6 +1431,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1089,6 +1458,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1111,6 +1485,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1133,6 +1512,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1155,6 +1539,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -1177,6 +1566,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -1198,6 +1592,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1219,6 +1618,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -1240,6 +1644,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -1261,6 +1670,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1282,6 +1696,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -1303,6 +1722,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -1325,6 +1749,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -1347,6 +1776,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -1369,6 +1803,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -1391,6 +1830,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -1413,6 +1857,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
@@ -1435,6 +1884,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
@@ -1456,6 +1910,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
@@ -1477,6 +1936,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -1498,6 +1962,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
@@ -1519,6 +1988,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
@@ -1540,6 +2014,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
@@ -1561,6 +2040,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
@@ -1583,6 +2067,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="37"/>
@@ -1605,6 +2094,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="38"/>
@@ -1627,6 +2121,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="39"/>
@@ -1649,6 +2148,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="40"/>
@@ -1671,6 +2175,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="41"/>
@@ -1693,6 +2202,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="42"/>
@@ -1714,6 +2228,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="43"/>
@@ -1735,6 +2254,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="44"/>
@@ -1756,6 +2280,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="45"/>
@@ -1777,6 +2306,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="46"/>
@@ -1798,6 +2332,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="47"/>
@@ -1819,6 +2358,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="48"/>
@@ -1841,6 +2385,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="49"/>
@@ -1863,6 +2412,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="50"/>
@@ -1885,6 +2439,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="51"/>
@@ -1907,6 +2466,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="52"/>
@@ -1929,6 +2493,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="53"/>
@@ -1951,6 +2520,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="54"/>
@@ -1970,6 +2544,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="55"/>
@@ -1989,6 +2568,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="56"/>
@@ -2008,6 +2592,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000071-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="57"/>
@@ -2027,6 +2616,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000073-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="58"/>
@@ -2046,6 +2640,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000075-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="59"/>
@@ -2065,6 +2664,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000077-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="60"/>
@@ -2086,6 +2690,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000079-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="61"/>
@@ -2107,6 +2716,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="62"/>
@@ -2128,6 +2742,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="63"/>
@@ -2149,6 +2768,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000007F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="64"/>
@@ -2170,6 +2794,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000081-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="65"/>
@@ -2191,6 +2820,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000083-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="66"/>
@@ -2213,6 +2847,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000085-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="67"/>
@@ -2235,6 +2874,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000087-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="68"/>
@@ -2257,6 +2901,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000089-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="69"/>
@@ -2279,6 +2928,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008B-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="70"/>
@@ -2301,6 +2955,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008D-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="71"/>
@@ -2323,6 +2982,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000008F-69B4-4449-B24D-42EEADCFB9FB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2397,7 +3061,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$F$3:$F$74</c:f>
+              <c:f>Sheet1!$F$2:$F$73</c:f>
               <c:strCache>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
@@ -2621,7 +3285,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$74</c:f>
+              <c:f>Sheet1!$H$2:$H$73</c:f>
               <c:numCache>
                 <c:formatCode>[$$]#,##0.00</c:formatCode>
                 <c:ptCount val="72"/>
@@ -3611,16 +4275,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>982980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3945,10 +4609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C7EC81-6051-4E32-90CC-39A8BC315A84}">
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3957,9 +4621,9 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
@@ -3993,366 +4657,389 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="8">
-        <f>SUM(H1:H1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="2" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
         <v>404080277</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5785</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>403146554</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="4">
-        <v>5785</v>
+        <v>2782.67</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>403146554</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>96</v>
+      <c r="A4" s="2">
+        <v>404925083</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42269300</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="4">
-        <v>2782.67</v>
+        <v>2457</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>404925083</v>
-      </c>
-      <c r="B5" s="3">
-        <v>42269300</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>403082570</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="4">
-        <v>2457</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="H5" s="9">
+        <v>2075.0500000000002</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>403082573</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1103473</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1275.05</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>403879155</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1275.05</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>405613120</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="4">
+        <v>710.5</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>403082570</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2075.0500000000002</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>403082573</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1103473</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1275.05</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>403879155</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1275.05</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>405613120</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>82</v>
+      <c r="A9" s="2">
+        <v>403876520</v>
+      </c>
+      <c r="B9" s="3">
+        <v>155305</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="4">
-        <v>710.5</v>
+        <v>567.1</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>403876520</v>
+      <c r="A10" s="5">
+        <v>404080276</v>
       </c>
       <c r="B10" s="3">
-        <v>155305</v>
+        <v>41928279</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="4">
-        <v>567.1</v>
+        <v>520.71</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>403879156</v>
+      </c>
+      <c r="B11" s="8">
+        <v>121684</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="9">
+        <v>475.05</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>404079401</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1118202601171000</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="4">
+        <v>85.07</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>404080276</v>
-      </c>
-      <c r="B11" s="3">
-        <v>41928279</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="4">
-        <v>520.71</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>403879156</v>
-      </c>
-      <c r="B12" s="3">
-        <v>121684</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="4">
-        <v>475.05</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>404079401</v>
+    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>402939169</v>
       </c>
       <c r="B13" s="3">
-        <v>1118202601171000</v>
+        <v>155385</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="4">
-        <v>85.07</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>402939169</v>
+      <c r="A14" s="2">
+        <v>403082571</v>
       </c>
       <c r="B14" s="3">
-        <v>155385</v>
+        <v>116228801110830</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H14" s="4">
-        <v>72.180000000000007</v>
+        <v>49.32</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>403082571</v>
+        <v>403082568</v>
       </c>
       <c r="B15" s="3">
-        <v>116228801110830</v>
+        <v>116233101110906</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -4377,52 +5064,52 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>403082568</v>
-      </c>
-      <c r="B16" s="3">
-        <v>116233101110906</v>
+      <c r="A16" s="5">
+        <v>402939343</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="4">
-        <v>49.32</v>
+        <v>49</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>402939343</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>404079402</v>
+      </c>
+      <c r="B17" s="3">
+        <v>101700000282</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>13</v>
@@ -4431,91 +5118,91 @@
         <v>49</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>404079402</v>
-      </c>
-      <c r="B18" s="3">
-        <v>101700000282</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>404080275</v>
+      </c>
+      <c r="B18" s="2">
+        <v>320883</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="4">
-        <v>49</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>19</v>
+      <c r="H18" s="7">
+        <v>48.98</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>404080275</v>
-      </c>
-      <c r="B19" s="2">
-        <v>320883</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>404080278</v>
+      </c>
+      <c r="B19" s="3">
+        <v>320977</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="4">
         <v>48.98</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>404080278</v>
-      </c>
-      <c r="B20" s="3">
-        <v>320977</v>
+      <c r="I19" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>404079491</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="4">
-        <v>48.98</v>
+        <v>46.4</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>36</v>
@@ -4523,10 +5210,10 @@
     </row>
     <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>404079491</v>
+        <v>403879143</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
@@ -4547,85 +5234,85 @@
         <v>46.4</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>403879143</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>600986061</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="4">
-        <v>46.4</v>
+        <v>36.090000000000003</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <v>600986061</v>
+        <v>405613066</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="H23" s="4">
-        <v>36.090000000000003</v>
+        <v>35</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <v>405613066</v>
+        <v>402939344</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>13</v>
@@ -4638,23 +5325,23 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5">
-        <v>402939344</v>
+      <c r="A25" s="2">
+        <v>405613121</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>13</v>
@@ -4667,23 +5354,23 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>405613121</v>
+      <c r="A26" s="5">
+        <v>404925074</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>13</v>
@@ -4692,27 +5379,27 @@
         <v>35</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <v>404925074</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>138</v>
+        <v>404079409</v>
+      </c>
+      <c r="B27" s="3">
+        <v>170914035</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>13</v>
@@ -4721,24 +5408,24 @@
         <v>35</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="5">
-        <v>404079409</v>
+      <c r="A28" s="2">
+        <v>403116889</v>
       </c>
       <c r="B28" s="3">
-        <v>170914035</v>
+        <v>131004017</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
@@ -4747,146 +5434,146 @@
         <v>13</v>
       </c>
       <c r="H28" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>403116889</v>
-      </c>
-      <c r="B29" s="3">
-        <v>131004017</v>
+      <c r="A29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H29" s="4">
         <v>30</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>404080279</v>
+      </c>
+      <c r="B30" s="2">
+        <v>16053931</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="7">
         <v>30</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>404080279</v>
-      </c>
-      <c r="B31" s="2">
-        <v>16053931</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="2" t="s">
+        <v>402939335</v>
+      </c>
+      <c r="B31" s="3">
+        <v>148000761</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="4">
         <v>30</v>
       </c>
-      <c r="I31" s="2" t="s">
-        <v>36</v>
+      <c r="I31" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>402939335</v>
+        <v>404079489</v>
       </c>
       <c r="B32" s="3">
-        <v>148000761</v>
+        <v>17100622</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H32" s="4">
         <v>30</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>404079489</v>
-      </c>
-      <c r="B33" s="3">
-        <v>17100622</v>
+      <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>25</v>
@@ -4895,30 +5582,30 @@
         <v>30</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>60</v>
+      <c r="A34" s="5">
+        <v>404080281</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H34" s="4">
         <v>30</v>
@@ -4929,138 +5616,138 @@
     </row>
     <row r="35" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <v>404080281</v>
+        <v>404080497</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>70</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H35" s="4">
         <v>30</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <v>404080497</v>
+        <v>403879163</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H36" s="4">
         <v>30</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
-        <v>403879163</v>
+        <v>404079494</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H37" s="4">
         <v>30</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <v>404079494</v>
+        <v>404079492</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H38" s="4">
         <v>30</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
-        <v>404079492</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>90</v>
+        <v>404080282</v>
+      </c>
+      <c r="B39" s="3">
+        <v>1115801858</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>13</v>
@@ -5072,27 +5759,27 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="5">
-        <v>404080282</v>
+    <row r="40" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>600986025</v>
       </c>
       <c r="B40" s="3">
-        <v>1115801858</v>
+        <v>3812021</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H40" s="4">
         <v>30</v>
@@ -5101,24 +5788,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>600986025</v>
-      </c>
-      <c r="B41" s="3">
-        <v>3812021</v>
+        <v>404076724</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>25</v>
@@ -5130,24 +5817,24 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>404076724</v>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>25</v>
@@ -5160,81 +5847,81 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>114</v>
+      <c r="A43" s="2">
+        <v>403879144</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H43" s="4">
         <v>30</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>403879144</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>117</v>
+        <v>404079398</v>
+      </c>
+      <c r="B44" s="3">
+        <v>17050261</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H44" s="4">
         <v>30</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
-        <v>404079398</v>
-      </c>
-      <c r="B45" s="3">
-        <v>17050261</v>
+      <c r="A45" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>25</v>
@@ -5243,27 +5930,27 @@
         <v>30</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>121</v>
+      <c r="A46" s="2">
+        <v>403879173</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>25</v>
@@ -5272,114 +5959,114 @@
         <v>30</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>403879173</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>123</v>
+        <v>600986062</v>
+      </c>
+      <c r="B47" s="3">
+        <v>3200301</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H47" s="4">
         <v>30</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>600986062</v>
-      </c>
-      <c r="B48" s="3">
-        <v>3200301</v>
+        <v>404079425</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H48" s="4">
         <v>30</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
-        <v>404079425</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>127</v>
+        <v>403116888</v>
+      </c>
+      <c r="B49" s="3">
+        <v>131004010</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H49" s="4">
         <v>30</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>403116888</v>
-      </c>
-      <c r="B50" s="3">
-        <v>131004010</v>
+      <c r="A50" s="5">
+        <v>403879148</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>13</v>
@@ -5388,27 +6075,27 @@
         <v>30</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>403879148</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>150</v>
+        <v>403879180</v>
+      </c>
+      <c r="B51" s="3">
+        <v>3446779</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>13</v>
@@ -5417,56 +6104,56 @@
         <v>30</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
-        <v>403879180</v>
-      </c>
-      <c r="B52" s="3">
-        <v>3446779</v>
+        <v>404076725</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H52" s="4">
         <v>30</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5">
-        <v>404076725</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>25</v>
@@ -5475,27 +6162,27 @@
         <v>30</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>155</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
+        <v>405613126</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>25</v>
@@ -5504,27 +6191,27 @@
         <v>30</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>405613126</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>157</v>
+        <v>600986035</v>
+      </c>
+      <c r="B55" s="3">
+        <v>3820016</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>25</v>
@@ -5533,143 +6220,143 @@
         <v>30</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
-        <v>600986035</v>
-      </c>
-      <c r="B56" s="3">
-        <v>3820016</v>
+        <v>403879142</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H56" s="4">
         <v>30</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>403879142</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>160</v>
+        <v>402939247</v>
+      </c>
+      <c r="B57" s="3">
+        <v>41880543</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H57" s="4">
         <v>30</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A58" s="5">
-        <v>402939247</v>
-      </c>
-      <c r="B58" s="3">
-        <v>41880543</v>
+      <c r="A58" s="2">
+        <v>403879172</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H58" s="4">
         <v>30</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>403879172</v>
+      <c r="A59" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H59" s="4">
         <v>30</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>169</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>403879154</v>
+      </c>
+      <c r="B60" s="3">
+        <v>283609</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>25</v>
@@ -5678,27 +6365,27 @@
         <v>30</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
-        <v>403879154</v>
+        <v>402939175</v>
       </c>
       <c r="B61" s="3">
-        <v>283609</v>
+        <v>3326000106</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>25</v>
@@ -5712,51 +6399,51 @@
     </row>
     <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>402939175</v>
+        <v>402939248</v>
       </c>
       <c r="B62" s="3">
-        <v>3326000106</v>
+        <v>15083003</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H62" s="4">
         <v>30</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
-        <v>402939248</v>
-      </c>
-      <c r="B63" s="3">
-        <v>15083003</v>
+        <v>403879151</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>13</v>
@@ -5765,114 +6452,114 @@
         <v>30</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>403879151</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>176</v>
+        <v>404079411</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1000277923</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H64" s="4">
         <v>30</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
-        <v>404079411</v>
-      </c>
-      <c r="B65" s="3">
-        <v>1000277923</v>
+        <v>403879177</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H65" s="4">
         <v>30</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>403879177</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>184</v>
+        <v>404076774</v>
+      </c>
+      <c r="B66" s="3">
+        <v>160259133</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H66" s="4">
         <v>30</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
-        <v>404076774</v>
+        <v>404079397</v>
       </c>
       <c r="B67" s="3">
-        <v>160259133</v>
+        <v>17040642</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>25</v>
@@ -5881,56 +6568,56 @@
         <v>30</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>404079397</v>
+        <v>403879149</v>
       </c>
       <c r="B68" s="3">
-        <v>17040642</v>
+        <v>154713319133</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H68" s="4">
         <v>30</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
-        <v>403879149</v>
-      </c>
-      <c r="B69" s="3">
-        <v>154713319133</v>
+        <v>404079490</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>174</v>
+        <v>75</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>13</v>
@@ -5939,73 +6626,73 @@
         <v>30</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>404079490</v>
+        <v>404925072</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>193</v>
+        <v>10</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H70" s="4">
         <v>30</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>404925072</v>
+      <c r="A71" s="5">
+        <v>404962722</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" s="4">
         <v>25</v>
       </c>
-      <c r="H71" s="4">
-        <v>30</v>
-      </c>
       <c r="I71" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
-        <v>404962722</v>
+        <v>404925073</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>28</v>
@@ -6026,15 +6713,15 @@
         <v>25</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>404925073</v>
+      <c r="A73" s="2">
+        <v>404925070</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>28</v>
@@ -6058,44 +6745,1524 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>404925070</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H74" s="4">
-        <v>25</v>
-      </c>
-      <c r="I74" s="3" t="s">
-        <v>26</v>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>18312060</v>
+      </c>
+      <c r="B74">
+        <v>18312060</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" t="s">
+        <v>208</v>
+      </c>
+      <c r="H74">
+        <f>7060/36</f>
+        <v>196.11111111111111</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="H75" s="8">
-        <f>SUM(H2:H74)</f>
-        <v>20043.919999999998</v>
+      <c r="A75">
+        <v>19182023</v>
+      </c>
+      <c r="B75">
+        <v>19182023</v>
+      </c>
+      <c r="C75" t="s">
+        <v>204</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F75" t="s">
+        <v>208</v>
+      </c>
+      <c r="H75">
+        <f t="shared" ref="H75:H109" si="0">7060/36</f>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>19182024</v>
+      </c>
+      <c r="B76">
+        <v>19182024</v>
+      </c>
+      <c r="C76" t="s">
+        <v>204</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F76" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>17402024</v>
+      </c>
+      <c r="B77">
+        <v>17402024</v>
+      </c>
+      <c r="C77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F77" t="s">
+        <v>208</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>20482049</v>
+      </c>
+      <c r="B78">
+        <v>20482049</v>
+      </c>
+      <c r="C78" t="s">
+        <v>204</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F78" t="s">
+        <v>208</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>20482048</v>
+      </c>
+      <c r="B79">
+        <v>20482048</v>
+      </c>
+      <c r="C79" t="s">
+        <v>204</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" t="s">
+        <v>208</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>18502121</v>
+      </c>
+      <c r="B80">
+        <v>18502121</v>
+      </c>
+      <c r="C80" t="s">
+        <v>204</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F80" t="s">
+        <v>208</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>17332074</v>
+      </c>
+      <c r="B81">
+        <v>17332074</v>
+      </c>
+      <c r="C81" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" t="s">
+        <v>208</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>17282041</v>
+      </c>
+      <c r="B82">
+        <v>17282041</v>
+      </c>
+      <c r="C82" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F82" t="s">
+        <v>208</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>18512077</v>
+      </c>
+      <c r="B83">
+        <v>18512077</v>
+      </c>
+      <c r="C83" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F83" t="s">
+        <v>208</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>16482017</v>
+      </c>
+      <c r="B84">
+        <v>16482017</v>
+      </c>
+      <c r="C84" t="s">
+        <v>204</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" t="s">
+        <v>208</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>20482047</v>
+      </c>
+      <c r="B85">
+        <v>20482047</v>
+      </c>
+      <c r="C85" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" t="s">
+        <v>208</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>107074420</v>
+      </c>
+      <c r="B86">
+        <v>107074420</v>
+      </c>
+      <c r="C86" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F86" t="s">
+        <v>209</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>107074422</v>
+      </c>
+      <c r="B87">
+        <v>107074422</v>
+      </c>
+      <c r="C87" t="s">
+        <v>204</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s">
+        <v>210</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>107074425</v>
+      </c>
+      <c r="B88">
+        <v>107074425</v>
+      </c>
+      <c r="C88" t="s">
+        <v>204</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F88" t="s">
+        <v>211</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>107074427</v>
+      </c>
+      <c r="B89">
+        <v>107074427</v>
+      </c>
+      <c r="C89" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F89" t="s">
+        <v>212</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>107074438</v>
+      </c>
+      <c r="B90">
+        <v>107074438</v>
+      </c>
+      <c r="C90" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" t="s">
+        <v>213</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>107074439</v>
+      </c>
+      <c r="B91">
+        <v>107074439</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="F91" t="s">
+        <v>214</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>107074441</v>
+      </c>
+      <c r="B92">
+        <v>107074441</v>
+      </c>
+      <c r="C92" t="s">
+        <v>204</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F92" t="s">
+        <v>215</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>107074442</v>
+      </c>
+      <c r="B93">
+        <v>107074442</v>
+      </c>
+      <c r="C93" t="s">
+        <v>204</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F93" t="s">
+        <v>216</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>107074445</v>
+      </c>
+      <c r="B94">
+        <v>107074445</v>
+      </c>
+      <c r="C94" t="s">
+        <v>204</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F94" t="s">
+        <v>217</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>107074446</v>
+      </c>
+      <c r="B95">
+        <v>107074446</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F95" t="s">
+        <v>218</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>107074448</v>
+      </c>
+      <c r="B96">
+        <v>107074448</v>
+      </c>
+      <c r="C96" t="s">
+        <v>204</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F96" t="s">
+        <v>219</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>507231044</v>
+      </c>
+      <c r="B97">
+        <v>507231044</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F97" t="s">
+        <v>220</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>702229109</v>
+      </c>
+      <c r="B98">
+        <v>702229109</v>
+      </c>
+      <c r="C98" t="s">
+        <v>204</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F98" t="s">
+        <v>221</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>702229091</v>
+      </c>
+      <c r="B99">
+        <v>702229091</v>
+      </c>
+      <c r="C99" t="s">
+        <v>204</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F99" t="s">
+        <v>222</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>702229114</v>
+      </c>
+      <c r="B100">
+        <v>702229114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F100" t="s">
+        <v>223</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>702229094</v>
+      </c>
+      <c r="B101">
+        <v>702229094</v>
+      </c>
+      <c r="C101" t="s">
+        <v>204</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F101" t="s">
+        <v>224</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>612030862</v>
+      </c>
+      <c r="B102">
+        <v>612030862</v>
+      </c>
+      <c r="C102" t="s">
+        <v>204</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F102" t="s">
+        <v>225</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>612030864</v>
+      </c>
+      <c r="B103">
+        <v>612030864</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F103" t="s">
+        <v>226</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>703131638</v>
+      </c>
+      <c r="B104">
+        <v>703131638</v>
+      </c>
+      <c r="C104" t="s">
+        <v>204</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F104" t="s">
+        <v>227</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>702229098</v>
+      </c>
+      <c r="B105">
+        <v>702229098</v>
+      </c>
+      <c r="C105" t="s">
+        <v>204</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F105" t="s">
+        <v>228</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>702229111</v>
+      </c>
+      <c r="B106">
+        <v>702229111</v>
+      </c>
+      <c r="C106" t="s">
+        <v>204</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F106" t="s">
+        <v>229</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>702229100</v>
+      </c>
+      <c r="B107">
+        <v>702229100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F107" t="s">
+        <v>230</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>703131637</v>
+      </c>
+      <c r="B108">
+        <v>703131637</v>
+      </c>
+      <c r="C108" t="s">
+        <v>204</v>
+      </c>
+      <c r="E108" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F108" t="s">
+        <v>231</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>702229095</v>
+      </c>
+      <c r="B109">
+        <v>702229095</v>
+      </c>
+      <c r="C109" t="s">
+        <v>204</v>
+      </c>
+      <c r="E109" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F109" t="s">
+        <v>232</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="0"/>
+        <v>196.11111111111111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F110" t="s">
+        <v>234</v>
+      </c>
+      <c r="H110">
+        <f>28+32.8+2.46</f>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F111" t="s">
+        <v>237</v>
+      </c>
+      <c r="H111">
+        <f t="shared" ref="H111:H119" si="1">28+32.8+2.46</f>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" t="s">
+        <v>237</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F113" t="s">
+        <v>234</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F114" t="s">
+        <v>234</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" t="s">
+        <v>105</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F115" t="s">
+        <v>243</v>
+      </c>
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>245</v>
+      </c>
+      <c r="C116" t="s">
+        <v>105</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F116" t="s">
+        <v>246</v>
+      </c>
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>248</v>
+      </c>
+      <c r="C117" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F117" t="s">
+        <v>246</v>
+      </c>
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>249</v>
+      </c>
+      <c r="C118" t="s">
+        <v>105</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F118" t="s">
+        <v>250</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>252</v>
+      </c>
+      <c r="C119" t="s">
+        <v>105</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F119" t="s">
+        <v>250</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H120">
+        <f>102.4+84.8+2.46</f>
+        <v>189.66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>256</v>
+      </c>
+      <c r="C121" t="s">
+        <v>105</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F121" t="s">
+        <v>237</v>
+      </c>
+      <c r="H121">
+        <f>28+32.8+2.36</f>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>258</v>
+      </c>
+      <c r="C122" t="s">
+        <v>105</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F122" t="s">
+        <v>234</v>
+      </c>
+      <c r="H122">
+        <f t="shared" ref="H122:H135" si="2">28+32.8+2.36</f>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>259</v>
+      </c>
+      <c r="C123" t="s">
+        <v>105</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F123" t="s">
+        <v>250</v>
+      </c>
+      <c r="H123">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" t="s">
+        <v>105</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F124" t="s">
+        <v>261</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F125" t="s">
+        <v>264</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>266</v>
+      </c>
+      <c r="C126" t="s">
+        <v>105</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F126" t="s">
+        <v>234</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>267</v>
+      </c>
+      <c r="C127" t="s">
+        <v>105</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" t="s">
+        <v>237</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128" t="s">
+        <v>105</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F128" t="s">
+        <v>250</v>
+      </c>
+      <c r="H128">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>269</v>
+      </c>
+      <c r="C129" t="s">
+        <v>105</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F129" t="s">
+        <v>250</v>
+      </c>
+      <c r="H129">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>270</v>
+      </c>
+      <c r="C130" t="s">
+        <v>105</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F130" t="s">
+        <v>264</v>
+      </c>
+      <c r="H130">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>271</v>
+      </c>
+      <c r="C131" t="s">
+        <v>105</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F131" t="s">
+        <v>261</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" t="s">
+        <v>105</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F132" t="s">
+        <v>246</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>273</v>
+      </c>
+      <c r="C133" t="s">
+        <v>105</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F133" t="s">
+        <v>246</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>274</v>
+      </c>
+      <c r="C134" t="s">
+        <v>105</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F134" t="s">
+        <v>243</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>275</v>
+      </c>
+      <c r="C135" t="s">
+        <v>105</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F135" t="s">
+        <v>234</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="2"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D136" s="12"/>
+      <c r="E136" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F136" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H136">
+        <f>H120</f>
+        <v>189.66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D137" s="12"/>
+      <c r="E137" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H137">
+        <f>H120</f>
+        <v>189.66</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>278</v>
+      </c>
+      <c r="C138" t="s">
+        <v>105</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F138" t="s">
+        <v>234</v>
+      </c>
+      <c r="H138">
+        <f>H110</f>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>279</v>
+      </c>
+      <c r="C139" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F139" t="s">
+        <v>237</v>
+      </c>
+      <c r="H139">
+        <f t="shared" ref="H139:H151" si="3">H111</f>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" t="s">
+        <v>105</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F140" t="s">
+        <v>261</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="3"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" t="s">
+        <v>105</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F141" t="s">
+        <v>261</v>
+      </c>
+      <c r="H141">
+        <f t="shared" si="3"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>282</v>
+      </c>
+      <c r="C142" t="s">
+        <v>105</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F142" t="s">
+        <v>234</v>
+      </c>
+      <c r="H142">
+        <f t="shared" si="3"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>283</v>
+      </c>
+      <c r="C143" t="s">
+        <v>105</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F143" t="s">
+        <v>243</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="3"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>284</v>
+      </c>
+      <c r="C144" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F144" t="s">
+        <v>237</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="3"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" t="s">
+        <v>105</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F145" t="s">
+        <v>237</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="3"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>286</v>
+      </c>
+      <c r="C146" t="s">
+        <v>105</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F146" t="s">
+        <v>264</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="3"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>287</v>
+      </c>
+      <c r="C147" t="s">
+        <v>105</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F147" t="s">
+        <v>234</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="3"/>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>288</v>
+      </c>
+      <c r="C148" t="s">
+        <v>105</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F148" t="s">
+        <v>237</v>
+      </c>
+      <c r="H148">
+        <f>H138</f>
+        <v>63.26</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>289</v>
+      </c>
+      <c r="C149" t="s">
+        <v>105</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F149" t="s">
+        <v>261</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="3"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>290</v>
+      </c>
+      <c r="C150" t="s">
+        <v>105</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="F150" t="s">
+        <v>246</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="3"/>
+        <v>63.16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" t="s">
+        <v>105</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F151" t="s">
+        <v>264</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="3"/>
+        <v>63.16</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I74">
-    <sortCondition descending="1" ref="H1:H74"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I73">
+    <sortCondition descending="1" ref="H1:H73"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Fees.xlsx
+++ b/Fees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f128286b0ef8de1/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{64268263-CDB2-42EC-BF05-493B52CED3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2BF22B5-0E10-46D8-A224-6743397ECEF4}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{64268263-CDB2-42EC-BF05-493B52CED3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E8422D8A-FA53-4F8C-A3B0-25A2D324B460}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D8A528E-C9B7-4FA9-BD04-72DB97F79495}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="303">
   <si>
     <t>Control Number</t>
   </si>
@@ -910,6 +910,39 @@
   </si>
   <si>
     <t>PH74484</t>
+  </si>
+  <si>
+    <t>Allometrics</t>
+  </si>
+  <si>
+    <t>NuAire Labgard Class II Biological Safety Cabinet</t>
+  </si>
+  <si>
+    <t>Fisher Scientific Calipers</t>
+  </si>
+  <si>
+    <t>Thermo Scientific Hamilton 6’ Chemical Fume Hood</t>
+  </si>
+  <si>
+    <t>B404254012</t>
+  </si>
+  <si>
+    <t>cGMP Core Staff</t>
+  </si>
+  <si>
+    <t>AB92347306</t>
+  </si>
+  <si>
+    <t>Mettler Toledo FiveEasy pH Meter</t>
+  </si>
+  <si>
+    <t>Fisher Scientific Accumet pH Meter</t>
+  </si>
+  <si>
+    <t>Watson Marlow Flexicon Filling System</t>
+  </si>
+  <si>
+    <t>Watson Marlow Flexicon Semi-Automatic Crimp Capper</t>
   </si>
 </sst>
 </file>
@@ -938,6 +971,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -984,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1028,6 +1062,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -4609,10 +4646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C7EC81-6051-4E32-90CC-39A8BC315A84}">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H149" sqref="H149"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="D163" sqref="D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5933,7 +5970,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>403879173</v>
       </c>
@@ -6165,7 +6202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>405613126</v>
       </c>
@@ -6426,7 +6463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>403879151</v>
       </c>
@@ -6484,7 +6521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>403879177</v>
       </c>
@@ -6600,7 +6637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>404079490</v>
       </c>
@@ -6783,7 +6820,7 @@
         <v>208</v>
       </c>
       <c r="H75">
-        <f t="shared" ref="H75:H109" si="0">7060/36</f>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6804,7 +6841,7 @@
         <v>208</v>
       </c>
       <c r="H76">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6825,7 +6862,7 @@
         <v>208</v>
       </c>
       <c r="H77">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6846,7 +6883,7 @@
         <v>208</v>
       </c>
       <c r="H78">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6867,7 +6904,7 @@
         <v>208</v>
       </c>
       <c r="H79">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6888,7 +6925,7 @@
         <v>208</v>
       </c>
       <c r="H80">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6909,7 +6946,7 @@
         <v>208</v>
       </c>
       <c r="H81">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6930,7 +6967,7 @@
         <v>208</v>
       </c>
       <c r="H82">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6951,7 +6988,7 @@
         <v>208</v>
       </c>
       <c r="H83">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6972,7 +7009,7 @@
         <v>208</v>
       </c>
       <c r="H84">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6993,7 +7030,7 @@
         <v>208</v>
       </c>
       <c r="H85">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7014,7 +7051,7 @@
         <v>209</v>
       </c>
       <c r="H86">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7035,7 +7072,7 @@
         <v>210</v>
       </c>
       <c r="H87">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7056,7 +7093,7 @@
         <v>211</v>
       </c>
       <c r="H88">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7077,7 +7114,7 @@
         <v>212</v>
       </c>
       <c r="H89">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7098,7 +7135,7 @@
         <v>213</v>
       </c>
       <c r="H90">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7119,7 +7156,7 @@
         <v>214</v>
       </c>
       <c r="H91">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7140,7 +7177,7 @@
         <v>215</v>
       </c>
       <c r="H92">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7161,7 +7198,7 @@
         <v>216</v>
       </c>
       <c r="H93">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7182,7 +7219,7 @@
         <v>217</v>
       </c>
       <c r="H94">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7203,7 +7240,7 @@
         <v>218</v>
       </c>
       <c r="H95">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7224,7 +7261,7 @@
         <v>219</v>
       </c>
       <c r="H96">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7245,7 +7282,7 @@
         <v>220</v>
       </c>
       <c r="H97">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7266,7 +7303,7 @@
         <v>221</v>
       </c>
       <c r="H98">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7287,7 +7324,7 @@
         <v>222</v>
       </c>
       <c r="H99">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7308,7 +7345,7 @@
         <v>223</v>
       </c>
       <c r="H100">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7329,7 +7366,7 @@
         <v>224</v>
       </c>
       <c r="H101">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7350,7 +7387,7 @@
         <v>225</v>
       </c>
       <c r="H102">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7371,7 +7408,7 @@
         <v>226</v>
       </c>
       <c r="H103">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7392,7 +7429,7 @@
         <v>227</v>
       </c>
       <c r="H104">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7413,7 +7450,7 @@
         <v>228</v>
       </c>
       <c r="H105">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7434,7 +7471,7 @@
         <v>229</v>
       </c>
       <c r="H106">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7455,7 +7492,7 @@
         <v>230</v>
       </c>
       <c r="H107">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7476,7 +7513,7 @@
         <v>231</v>
       </c>
       <c r="H108">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7497,7 +7534,7 @@
         <v>232</v>
       </c>
       <c r="H109">
-        <f t="shared" si="0"/>
+        <f>7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7533,7 +7570,7 @@
         <v>237</v>
       </c>
       <c r="H111">
-        <f t="shared" ref="H111:H119" si="1">28+32.8+2.46</f>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7551,7 +7588,7 @@
         <v>237</v>
       </c>
       <c r="H112">
-        <f t="shared" si="1"/>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7569,7 +7606,7 @@
         <v>234</v>
       </c>
       <c r="H113">
-        <f t="shared" si="1"/>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7587,7 +7624,7 @@
         <v>234</v>
       </c>
       <c r="H114">
-        <f t="shared" si="1"/>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7605,7 +7642,7 @@
         <v>243</v>
       </c>
       <c r="H115">
-        <f t="shared" si="1"/>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7623,7 +7660,7 @@
         <v>246</v>
       </c>
       <c r="H116">
-        <f t="shared" si="1"/>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7641,7 +7678,7 @@
         <v>246</v>
       </c>
       <c r="H117">
-        <f t="shared" si="1"/>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7659,7 +7696,7 @@
         <v>250</v>
       </c>
       <c r="H118">
-        <f t="shared" si="1"/>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7677,7 +7714,7 @@
         <v>250</v>
       </c>
       <c r="H119">
-        <f t="shared" si="1"/>
+        <f>28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7732,7 +7769,7 @@
         <v>234</v>
       </c>
       <c r="H122">
-        <f t="shared" ref="H122:H135" si="2">28+32.8+2.36</f>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7750,7 +7787,7 @@
         <v>250</v>
       </c>
       <c r="H123">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7768,7 +7805,7 @@
         <v>261</v>
       </c>
       <c r="H124">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7786,7 +7823,7 @@
         <v>264</v>
       </c>
       <c r="H125">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7804,7 +7841,7 @@
         <v>234</v>
       </c>
       <c r="H126">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7822,7 +7859,7 @@
         <v>237</v>
       </c>
       <c r="H127">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7840,7 +7877,7 @@
         <v>250</v>
       </c>
       <c r="H128">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7858,7 +7895,7 @@
         <v>250</v>
       </c>
       <c r="H129">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7876,7 +7913,7 @@
         <v>264</v>
       </c>
       <c r="H130">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7894,7 +7931,7 @@
         <v>261</v>
       </c>
       <c r="H131">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7912,7 +7949,7 @@
         <v>246</v>
       </c>
       <c r="H132">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7930,7 +7967,7 @@
         <v>246</v>
       </c>
       <c r="H133">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7948,7 +7985,7 @@
         <v>243</v>
       </c>
       <c r="H134">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7966,7 +8003,7 @@
         <v>234</v>
       </c>
       <c r="H135">
-        <f t="shared" si="2"/>
+        <f>28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -8040,7 +8077,7 @@
         <v>237</v>
       </c>
       <c r="H139">
-        <f t="shared" ref="H139:H151" si="3">H111</f>
+        <f>H111</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8058,7 +8095,7 @@
         <v>261</v>
       </c>
       <c r="H140">
-        <f t="shared" si="3"/>
+        <f>H112</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8076,7 +8113,7 @@
         <v>261</v>
       </c>
       <c r="H141">
-        <f t="shared" si="3"/>
+        <f>H113</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8094,7 +8131,7 @@
         <v>234</v>
       </c>
       <c r="H142">
-        <f t="shared" si="3"/>
+        <f>H114</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8112,7 +8149,7 @@
         <v>243</v>
       </c>
       <c r="H143">
-        <f t="shared" si="3"/>
+        <f>H115</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8130,7 +8167,7 @@
         <v>237</v>
       </c>
       <c r="H144">
-        <f t="shared" si="3"/>
+        <f>H116</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8148,7 +8185,7 @@
         <v>237</v>
       </c>
       <c r="H145">
-        <f t="shared" si="3"/>
+        <f>H117</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8166,7 +8203,7 @@
         <v>264</v>
       </c>
       <c r="H146">
-        <f t="shared" si="3"/>
+        <f>H118</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8184,7 +8221,7 @@
         <v>234</v>
       </c>
       <c r="H147">
-        <f t="shared" si="3"/>
+        <f>H119</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8220,7 +8257,7 @@
         <v>261</v>
       </c>
       <c r="H149">
-        <f t="shared" si="3"/>
+        <f>H121</f>
         <v>63.16</v>
       </c>
     </row>
@@ -8238,7 +8275,7 @@
         <v>246</v>
       </c>
       <c r="H150">
-        <f t="shared" si="3"/>
+        <f>H122</f>
         <v>63.16</v>
       </c>
     </row>
@@ -8256,8 +8293,161 @@
         <v>264</v>
       </c>
       <c r="H151">
-        <f t="shared" si="3"/>
+        <f>H123</f>
         <v>63.16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="12">
+        <v>403098754</v>
+      </c>
+      <c r="B152" s="17">
+        <v>158641082</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="12">
+        <v>404076774</v>
+      </c>
+      <c r="B153" s="17">
+        <v>160259133</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="12">
+        <v>403082567</v>
+      </c>
+      <c r="B154" s="17">
+        <v>403082567</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F154" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="12">
+        <v>403146772</v>
+      </c>
+      <c r="B155" s="17">
+        <v>161330012414</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F155" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="12">
+        <v>403148409</v>
+      </c>
+      <c r="B156" s="17">
+        <v>173658040616</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="F156" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>403879147</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C157" t="s">
+        <v>297</v>
+      </c>
+      <c r="F157" t="s">
+        <v>299</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>403876519</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C158" t="s">
+        <v>297</v>
+      </c>
+      <c r="F158" t="s">
+        <v>300</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>404080280</v>
+      </c>
+      <c r="B159" s="11">
+        <v>16053931</v>
+      </c>
+      <c r="C159" t="s">
+        <v>297</v>
+      </c>
+      <c r="F159" t="s">
+        <v>301</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>404080279</v>
+      </c>
+      <c r="B160" s="11">
+        <v>15103303</v>
+      </c>
+      <c r="C160" t="s">
+        <v>297</v>
+      </c>
+      <c r="F160" t="s">
+        <v>302</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Fees.xlsx
+++ b/Fees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5f128286b0ef8de1/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{64268263-CDB2-42EC-BF05-493B52CED3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E8422D8A-FA53-4F8C-A3B0-25A2D324B460}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{64268263-CDB2-42EC-BF05-493B52CED3DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FB3D5018-F7FC-4ED1-9056-A9F069B625ED}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D8A528E-C9B7-4FA9-BD04-72DB97F79495}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="304">
   <si>
     <t>Control Number</t>
   </si>
@@ -943,6 +943,9 @@
   </si>
   <si>
     <t>Watson Marlow Flexicon Semi-Automatic Crimp Capper</t>
+  </si>
+  <si>
+    <t>Modutek Corp Acid Bench</t>
   </si>
 </sst>
 </file>
@@ -4646,10 +4649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C7EC81-6051-4E32-90CC-39A8BC315A84}">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D163" sqref="D163"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6799,7 +6802,7 @@
         <v>208</v>
       </c>
       <c r="H74">
-        <f>7060/36</f>
+        <f t="shared" ref="H74:H109" si="0">7060/36</f>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6820,7 +6823,7 @@
         <v>208</v>
       </c>
       <c r="H75">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6841,7 +6844,7 @@
         <v>208</v>
       </c>
       <c r="H76">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6862,7 +6865,7 @@
         <v>208</v>
       </c>
       <c r="H77">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6883,7 +6886,7 @@
         <v>208</v>
       </c>
       <c r="H78">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6904,7 +6907,7 @@
         <v>208</v>
       </c>
       <c r="H79">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6925,7 +6928,7 @@
         <v>208</v>
       </c>
       <c r="H80">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6946,7 +6949,7 @@
         <v>208</v>
       </c>
       <c r="H81">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6967,7 +6970,7 @@
         <v>208</v>
       </c>
       <c r="H82">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -6988,7 +6991,7 @@
         <v>208</v>
       </c>
       <c r="H83">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7009,7 +7012,7 @@
         <v>208</v>
       </c>
       <c r="H84">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7030,7 +7033,7 @@
         <v>208</v>
       </c>
       <c r="H85">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7051,7 +7054,7 @@
         <v>209</v>
       </c>
       <c r="H86">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7072,7 +7075,7 @@
         <v>210</v>
       </c>
       <c r="H87">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7093,7 +7096,7 @@
         <v>211</v>
       </c>
       <c r="H88">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7114,7 +7117,7 @@
         <v>212</v>
       </c>
       <c r="H89">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7135,7 +7138,7 @@
         <v>213</v>
       </c>
       <c r="H90">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7156,7 +7159,7 @@
         <v>214</v>
       </c>
       <c r="H91">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7177,7 +7180,7 @@
         <v>215</v>
       </c>
       <c r="H92">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7198,7 +7201,7 @@
         <v>216</v>
       </c>
       <c r="H93">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7219,7 +7222,7 @@
         <v>217</v>
       </c>
       <c r="H94">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7240,7 +7243,7 @@
         <v>218</v>
       </c>
       <c r="H95">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7261,7 +7264,7 @@
         <v>219</v>
       </c>
       <c r="H96">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7282,7 +7285,7 @@
         <v>220</v>
       </c>
       <c r="H97">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7303,7 +7306,7 @@
         <v>221</v>
       </c>
       <c r="H98">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7324,7 +7327,7 @@
         <v>222</v>
       </c>
       <c r="H99">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7345,7 +7348,7 @@
         <v>223</v>
       </c>
       <c r="H100">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7366,7 +7369,7 @@
         <v>224</v>
       </c>
       <c r="H101">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7387,7 +7390,7 @@
         <v>225</v>
       </c>
       <c r="H102">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7408,7 +7411,7 @@
         <v>226</v>
       </c>
       <c r="H103">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7429,7 +7432,7 @@
         <v>227</v>
       </c>
       <c r="H104">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7450,7 +7453,7 @@
         <v>228</v>
       </c>
       <c r="H105">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7471,7 +7474,7 @@
         <v>229</v>
       </c>
       <c r="H106">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7492,7 +7495,7 @@
         <v>230</v>
       </c>
       <c r="H107">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7513,7 +7516,7 @@
         <v>231</v>
       </c>
       <c r="H108">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7534,7 +7537,7 @@
         <v>232</v>
       </c>
       <c r="H109">
-        <f>7060/36</f>
+        <f t="shared" si="0"/>
         <v>196.11111111111111</v>
       </c>
     </row>
@@ -7552,7 +7555,7 @@
         <v>234</v>
       </c>
       <c r="H110">
-        <f>28+32.8+2.46</f>
+        <f t="shared" ref="H110:H119" si="1">28+32.8+2.46</f>
         <v>63.26</v>
       </c>
     </row>
@@ -7570,7 +7573,7 @@
         <v>237</v>
       </c>
       <c r="H111">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7588,7 +7591,7 @@
         <v>237</v>
       </c>
       <c r="H112">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7606,7 +7609,7 @@
         <v>234</v>
       </c>
       <c r="H113">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7624,7 +7627,7 @@
         <v>234</v>
       </c>
       <c r="H114">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7642,7 +7645,7 @@
         <v>243</v>
       </c>
       <c r="H115">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7660,7 +7663,7 @@
         <v>246</v>
       </c>
       <c r="H116">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7678,7 +7681,7 @@
         <v>246</v>
       </c>
       <c r="H117">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7696,7 +7699,7 @@
         <v>250</v>
       </c>
       <c r="H118">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7714,7 +7717,7 @@
         <v>250</v>
       </c>
       <c r="H119">
-        <f>28+32.8+2.46</f>
+        <f t="shared" si="1"/>
         <v>63.26</v>
       </c>
     </row>
@@ -7751,7 +7754,7 @@
         <v>237</v>
       </c>
       <c r="H121">
-        <f>28+32.8+2.36</f>
+        <f t="shared" ref="H121:H135" si="2">28+32.8+2.36</f>
         <v>63.16</v>
       </c>
     </row>
@@ -7769,7 +7772,7 @@
         <v>234</v>
       </c>
       <c r="H122">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7787,7 +7790,7 @@
         <v>250</v>
       </c>
       <c r="H123">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7805,7 +7808,7 @@
         <v>261</v>
       </c>
       <c r="H124">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7823,7 +7826,7 @@
         <v>264</v>
       </c>
       <c r="H125">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7841,7 +7844,7 @@
         <v>234</v>
       </c>
       <c r="H126">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7859,7 +7862,7 @@
         <v>237</v>
       </c>
       <c r="H127">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7877,7 +7880,7 @@
         <v>250</v>
       </c>
       <c r="H128">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7895,7 +7898,7 @@
         <v>250</v>
       </c>
       <c r="H129">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7913,7 +7916,7 @@
         <v>264</v>
       </c>
       <c r="H130">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7931,7 +7934,7 @@
         <v>261</v>
       </c>
       <c r="H131">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7949,7 +7952,7 @@
         <v>246</v>
       </c>
       <c r="H132">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7967,7 +7970,7 @@
         <v>246</v>
       </c>
       <c r="H133">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -7985,7 +7988,7 @@
         <v>243</v>
       </c>
       <c r="H134">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -8003,7 +8006,7 @@
         <v>234</v>
       </c>
       <c r="H135">
-        <f>28+32.8+2.36</f>
+        <f t="shared" si="2"/>
         <v>63.16</v>
       </c>
     </row>
@@ -8059,7 +8062,7 @@
         <v>234</v>
       </c>
       <c r="H138">
-        <f>H110</f>
+        <f t="shared" ref="H138:H147" si="3">H110</f>
         <v>63.26</v>
       </c>
     </row>
@@ -8077,7 +8080,7 @@
         <v>237</v>
       </c>
       <c r="H139">
-        <f>H111</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8095,7 +8098,7 @@
         <v>261</v>
       </c>
       <c r="H140">
-        <f>H112</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8113,7 +8116,7 @@
         <v>261</v>
       </c>
       <c r="H141">
-        <f>H113</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8131,7 +8134,7 @@
         <v>234</v>
       </c>
       <c r="H142">
-        <f>H114</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8149,7 +8152,7 @@
         <v>243</v>
       </c>
       <c r="H143">
-        <f>H115</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8167,7 +8170,7 @@
         <v>237</v>
       </c>
       <c r="H144">
-        <f>H116</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8185,7 +8188,7 @@
         <v>237</v>
       </c>
       <c r="H145">
-        <f>H117</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8203,7 +8206,7 @@
         <v>264</v>
       </c>
       <c r="H146">
-        <f>H118</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8221,7 +8224,7 @@
         <v>234</v>
       </c>
       <c r="H147">
-        <f>H119</f>
+        <f t="shared" si="3"/>
         <v>63.26</v>
       </c>
     </row>
@@ -8447,6 +8450,20 @@
         <v>302</v>
       </c>
       <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>403082549</v>
+      </c>
+      <c r="C161" t="s">
+        <v>297</v>
+      </c>
+      <c r="F161" t="s">
+        <v>303</v>
+      </c>
+      <c r="H161">
         <v>0</v>
       </c>
     </row>
